--- a/bin/Debug/StockMachimbre.xlsx
+++ b/bin/Debug/StockMachimbre.xlsx
@@ -25,76 +25,22 @@
     <x:t>Calidad</x:t>
   </x:si>
   <x:si>
-    <x:t>N° Paquete</x:t>
+    <x:t>Medida</x:t>
   </x:si>
   <x:si>
     <x:t>Cant Paquetes</x:t>
   </x:si>
   <x:si>
-    <x:t>Medida</x:t>
-  </x:si>
-  <x:si>
     <x:t>Cant. Tablas x Paquete</x:t>
   </x:si>
   <x:si>
     <x:t>Cant. Tablas Totales</x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10x10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20x20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4x4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90x99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9x9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Premium</x:t>
   </x:si>
   <x:si>
-    <x:t>999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9x99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7x7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5x3</x:t>
+    <x:t>2x2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -188,7 +134,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -211,10 +157,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -512,7 +454,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F23"/>
+  <x:dimension ref="A1:E12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -520,17 +462,17 @@
   <x:cols>
     <x:col min="1" max="1" width="16.710625" style="0" customWidth="1"/>
     <x:col min="2" max="3" width="17.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.710625" style="0" customWidth="1"/>
-    <x:col min="5" max="6" width="25.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="5" width="25.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="9" spans="1:6">
-      <x:c r="C9" s="1" t="s">
+    <x:row r="9" spans="1:5">
+      <x:c r="B9" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="C9" s="2"/>
       <x:c r="D9" s="2"/>
     </x:row>
-    <x:row r="10" spans="1:6">
+    <x:row r="10" spans="1:5">
       <x:c r="A10" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -538,9 +480,8 @@
       <x:c r="C10" s="4"/>
       <x:c r="D10" s="4"/>
       <x:c r="E10" s="4"/>
-      <x:c r="F10" s="4"/>
     </x:row>
-    <x:row r="11" spans="1:6">
+    <x:row r="11" spans="1:5">
       <x:c r="A11" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -556,218 +497,28 @@
       <x:c r="E11" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F11" s="5" t="s">
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="6"/>
-      <x:c r="B12" s="6"/>
-      <x:c r="C12" s="6"/>
-      <x:c r="D12" s="6"/>
-      <x:c r="E12" s="6"/>
-      <x:c r="F12" s="6"/>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="6"/>
-      <x:c r="B13" s="6"/>
-      <x:c r="C13" s="6"/>
-      <x:c r="D13" s="6"/>
-      <x:c r="E13" s="6"/>
-      <x:c r="F13" s="6"/>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="5" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C14" s="5">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D14" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E14" s="5">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F14" s="5">
-        <x:v>1110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="6" t="s"/>
-      <x:c r="B15" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="5">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D15" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E15" s="5">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F15" s="5">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="6" t="s"/>
-      <x:c r="B16" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C16" s="5">
+      <x:c r="C12" s="5">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="5">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D16" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E16" s="5">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F16" s="5">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="6" t="s"/>
-      <x:c r="B17" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C17" s="5">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D17" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E17" s="5">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F17" s="5">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="6" t="s"/>
-      <x:c r="B18" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C18" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D18" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E18" s="5">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="F18" s="5">
-        <x:v>462</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="6" t="s"/>
-      <x:c r="B19" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C19" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D19" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E19" s="5">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F19" s="5">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B20" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C20" s="5">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D20" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E20" s="5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F20" s="5">
-        <x:v>1100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="A21" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B21" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C21" s="5">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D21" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E21" s="5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F21" s="5">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B22" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C22" s="5">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D22" s="5" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E22" s="5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F22" s="5">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B23" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C23" s="5">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D23" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E23" s="5">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F23" s="5">
-        <x:v>12300</x:v>
+      <x:c r="E12" s="5">
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="C9:D9"/>
-    <x:mergeCell ref="A10:F10"/>
+    <x:mergeCell ref="B9:D9"/>
+    <x:mergeCell ref="A10:E10"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
